--- a/biology/Botanique/Limonium/Limonium.xlsx
+++ b/biology/Botanique/Limonium/Limonium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium est un genre de plantes de la famille des Plumbaginaceae (Plombaginacées).
-Ce genre est délicat à déterminer et en constante révision depuis de nombreuses années[1]. Il est utile de se référer aux derniers articles et mises à jour[2].
+Ce genre est délicat à déterminer et en constante révision depuis de nombreuses années. Il est utile de se référer aux derniers articles et mises à jour.
 </t>
         </is>
       </c>
@@ -512,13 +524,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Limonium arborescens (Brouss.) Kuntze
 Limonium companyonis - (Corse)
 Limonium diffusum - Statice diffus - (Espagne, Languedoc)
 Limonium leptostachyum (Boiss.) Kuntz
-Selon Catalogue of Life                                   (17 janvier 2018)[3] :
+Selon Catalogue of Life                                   (17 janvier 2018) :
 Limonium acuminatum L. Bolus
 Limonium acutifolium (Rchb.) Salmon
 Limonium adilguneri Yild. &amp; Dogru-Koca
@@ -531,7 +545,7 @@
 Limonium albuferae P.P.Ferrer, R.Roselló, M.Rosato, Rosselló &amp; E.Laguna
 Limonium album (Coincy) Sennen
 Limonium alcudianum M. Erben
-Limonium algarvense Erben[4] - Endémique à l'Algarve.
+Limonium algarvense Erben - Endémique à l'Algarve.
 Limonium algusae (Brullo) Greuter
 Limonium alicunense F. Gomez Garcia
 Limonium alleizettei (Pau) S. Brullo &amp; M. Erben
